--- a/Team-Data/2013-14/1-12-2013-14.xlsx
+++ b/Team-Data/2013-14/1-12-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="n">
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>0.526</v>
+        <v>0.541</v>
       </c>
       <c r="H2" t="n">
         <v>48.7</v>
@@ -693,19 +760,19 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O2" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P2" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.77</v>
+        <v>0.774</v>
       </c>
       <c r="R2" t="n">
         <v>9.300000000000001</v>
@@ -714,7 +781,7 @@
         <v>32.1</v>
       </c>
       <c r="T2" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U2" t="n">
         <v>25.4</v>
@@ -726,43 +793,43 @@
         <v>8.6</v>
       </c>
       <c r="X2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA2" t="n">
         <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>8</v>
@@ -783,7 +850,7 @@
         <v>22</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -804,10 +871,10 @@
         <v>9</v>
       </c>
       <c r="AX2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -816,10 +883,10 @@
         <v>22</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -956,7 +1023,7 @@
         <v>25</v>
       </c>
       <c r="AN3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
         <v>21</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1378,7 @@
         <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
@@ -1335,7 +1402,7 @@
         <v>23</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT5" t="n">
         <v>22</v>
@@ -1353,7 +1420,7 @@
         <v>12</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
         <v>3</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -1472,13 +1539,13 @@
         <v>-0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
         <v>15</v>
@@ -1514,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>0.351</v>
+        <v>0.361</v>
       </c>
       <c r="H7" t="n">
         <v>49.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J7" t="n">
-        <v>85.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.424</v>
+        <v>0.425</v>
       </c>
       <c r="L7" t="n">
         <v>7.2</v>
@@ -1606,28 +1673,28 @@
         <v>19.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O7" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P7" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.743</v>
+        <v>0.751</v>
       </c>
       <c r="R7" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="S7" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T7" t="n">
-        <v>44.4</v>
+        <v>44.7</v>
       </c>
       <c r="U7" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V7" t="n">
         <v>15.3</v>
@@ -1636,46 +1703,46 @@
         <v>7.1</v>
       </c>
       <c r="X7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.7</v>
+        <v>-4.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
         <v>24</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH7" t="n">
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
         <v>19</v>
@@ -1687,22 +1754,22 @@
         <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AR7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS7" t="n">
         <v>14</v>
       </c>
       <c r="AT7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU7" t="n">
         <v>29</v>
@@ -1711,7 +1778,7 @@
         <v>20</v>
       </c>
       <c r="AW7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX7" t="n">
         <v>21</v>
@@ -1720,7 +1787,7 @@
         <v>28</v>
       </c>
       <c r="AZ7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA7" t="n">
         <v>21</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1978,7 @@
         <v>10</v>
       </c>
       <c r="BC8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>1.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
@@ -2027,7 +2094,7 @@
         <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
@@ -2039,7 +2106,7 @@
         <v>7</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL9" t="n">
         <v>13</v>
@@ -2063,7 +2130,7 @@
         <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT9" t="n">
         <v>4</v>
@@ -2093,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="BC9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2270,7 @@
         <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF10" t="n">
         <v>19</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2512,7 @@
         <v>11</v>
       </c>
       <c r="AY11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ11" t="n">
         <v>27</v>
@@ -2457,7 +2524,7 @@
         <v>8</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2621,7 +2688,7 @@
         <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX12" t="n">
         <v>5</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>8.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2773,7 +2840,7 @@
         <v>20</v>
       </c>
       <c r="AM13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN13" t="n">
         <v>15</v>
@@ -2794,7 +2861,7 @@
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU13" t="n">
         <v>17</v>
@@ -2803,7 +2870,7 @@
         <v>25</v>
       </c>
       <c r="AW13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX13" t="n">
         <v>4</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -2976,7 +3043,7 @@
         <v>10</v>
       </c>
       <c r="AT14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>22</v>
@@ -3131,7 +3198,7 @@
         <v>12</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
         <v>5</v>
@@ -3149,7 +3216,7 @@
         <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
@@ -3158,7 +3225,7 @@
         <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU15" t="n">
         <v>13</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" t="n">
         <v>19</v>
       </c>
       <c r="G16" t="n">
-        <v>0.472</v>
+        <v>0.457</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J16" t="n">
         <v>83.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
@@ -3244,7 +3311,7 @@
         <v>14.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O16" t="n">
         <v>15.8</v>
@@ -3253,10 +3320,10 @@
         <v>21.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="R16" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S16" t="n">
         <v>30.9</v>
@@ -3265,40 +3332,40 @@
         <v>43.3</v>
       </c>
       <c r="U16" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="V16" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W16" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>96.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.9</v>
+        <v>-1.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG16" t="n">
         <v>16</v>
@@ -3307,13 +3374,13 @@
         <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3331,7 +3398,7 @@
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR16" t="n">
         <v>6</v>
@@ -3340,28 +3407,28 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
       </c>
       <c r="AW16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX16" t="n">
         <v>27</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB16" t="n">
         <v>21</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>6.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM17" t="n">
         <v>14</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3686,7 +3753,7 @@
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -3760,91 +3827,91 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" t="n">
         <v>18</v>
       </c>
       <c r="F19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19" t="n">
-        <v>0.486</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="J19" t="n">
-        <v>89.40000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.434</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M19" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O19" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="P19" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="Q19" t="n">
         <v>0.791</v>
       </c>
       <c r="R19" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="S19" t="n">
-        <v>32.4</v>
+        <v>32.7</v>
       </c>
       <c r="T19" t="n">
-        <v>46.1</v>
+        <v>46.3</v>
       </c>
       <c r="U19" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="V19" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="W19" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="X19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>107</v>
+        <v>107.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
         <v>13</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG19" t="n">
         <v>14</v>
@@ -3859,10 +3926,10 @@
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM19" t="n">
         <v>9</v>
@@ -3883,7 +3950,7 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AT19" t="n">
         <v>5</v>
@@ -3895,13 +3962,13 @@
         <v>8</v>
       </c>
       <c r="AW19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX19" t="n">
         <v>30</v>
       </c>
       <c r="AY19" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AZ19" t="n">
         <v>1</v>
@@ -3913,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="BC19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
         <v>19</v>
@@ -4038,7 +4105,7 @@
         <v>6</v>
       </c>
       <c r="AJ20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK20" t="n">
         <v>9</v>
@@ -4068,7 +4135,7 @@
         <v>24</v>
       </c>
       <c r="AT20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU20" t="n">
         <v>11</v>
@@ -4092,7 +4159,7 @@
         <v>20</v>
       </c>
       <c r="BB20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC20" t="n">
         <v>17</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4214,10 +4281,10 @@
         <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ21" t="n">
         <v>16</v>
@@ -4277,7 +4344,7 @@
         <v>26</v>
       </c>
       <c r="BC21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -4384,10 +4451,10 @@
         <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>3</v>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
         <v>9</v>
@@ -4408,19 +4475,19 @@
         <v>5</v>
       </c>
       <c r="AL22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM22" t="n">
         <v>20</v>
       </c>
       <c r="AN22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO22" t="n">
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
@@ -4435,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV22" t="n">
         <v>23</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4596,13 +4663,13 @@
         <v>15</v>
       </c>
       <c r="AN23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ23" t="n">
         <v>19</v>
@@ -4635,13 +4702,13 @@
         <v>12</v>
       </c>
       <c r="BA23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB23" t="n">
         <v>24</v>
       </c>
       <c r="BC23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>-8.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF24" t="n">
         <v>26</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4951,7 +5018,7 @@
         <v>10</v>
       </c>
       <c r="AK25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL25" t="n">
         <v>2</v>
@@ -4969,16 +5036,16 @@
         <v>13</v>
       </c>
       <c r="AQ25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
       </c>
       <c r="AS25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU25" t="n">
         <v>30</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -5112,10 +5179,10 @@
         <v>6.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF26" t="n">
         <v>3</v>
@@ -5133,7 +5200,7 @@
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>1</v>
@@ -5142,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -5216,55 +5283,55 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" t="n">
         <v>22</v>
       </c>
       <c r="G27" t="n">
-        <v>0.371</v>
+        <v>0.353</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J27" t="n">
         <v>83.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.449</v>
+        <v>0.447</v>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="M27" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.347</v>
+        <v>0.34</v>
       </c>
       <c r="O27" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P27" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.775</v>
+        <v>0.773</v>
       </c>
       <c r="R27" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S27" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T27" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U27" t="n">
         <v>20.4</v>
@@ -5273,37 +5340,37 @@
         <v>14.7</v>
       </c>
       <c r="W27" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X27" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z27" t="n">
         <v>22.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB27" t="n">
-        <v>102</v>
+        <v>101.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>-1.6</v>
+        <v>-3</v>
       </c>
       <c r="AD27" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
         <v>19</v>
       </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
         <v>12</v>
@@ -5315,31 +5382,31 @@
         <v>14</v>
       </c>
       <c r="AK27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM27" t="n">
         <v>22</v>
       </c>
-      <c r="AM27" t="n">
-        <v>21</v>
-      </c>
       <c r="AN27" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
         <v>5</v>
       </c>
       <c r="AP27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR27" t="n">
         <v>10</v>
       </c>
       <c r="AS27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT27" t="n">
         <v>12</v>
@@ -5348,7 +5415,7 @@
         <v>21</v>
       </c>
       <c r="AV27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW27" t="n">
         <v>13</v>
@@ -5357,7 +5424,7 @@
         <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AZ27" t="n">
         <v>30</v>
@@ -5366,10 +5433,10 @@
         <v>5</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -5398,43 +5465,43 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" t="n">
         <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>0.784</v>
+        <v>0.778</v>
       </c>
       <c r="H28" t="n">
         <v>48.1</v>
       </c>
       <c r="I28" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="J28" t="n">
-        <v>83.5</v>
+        <v>83.8</v>
       </c>
       <c r="K28" t="n">
-        <v>0.491</v>
+        <v>0.489</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.398</v>
+        <v>0.393</v>
       </c>
       <c r="O28" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="P28" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="Q28" t="n">
         <v>0.768</v>
@@ -5443,43 +5510,43 @@
         <v>9.5</v>
       </c>
       <c r="S28" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
         <v>43.2</v>
       </c>
       <c r="U28" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="V28" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="W28" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X28" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF28" t="n">
         <v>2</v>
@@ -5488,7 +5555,7 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5506,7 +5573,7 @@
         <v>16</v>
       </c>
       <c r="AN28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>29</v>
@@ -5521,22 +5588,22 @@
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW28" t="n">
         <v>15</v>
       </c>
       <c r="AX28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5545,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="BA28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB28" t="n">
         <v>6</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
@@ -5715,7 +5782,7 @@
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX29" t="n">
         <v>15</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF30" t="n">
         <v>28</v>
@@ -5861,7 +5928,7 @@
         <v>25</v>
       </c>
       <c r="AK30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5873,7 +5940,7 @@
         <v>16</v>
       </c>
       <c r="AO30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP30" t="n">
         <v>24</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
@@ -6022,16 +6089,16 @@
         <v>-1.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH31" t="n">
         <v>4</v>
@@ -6082,7 +6149,7 @@
         <v>10</v>
       </c>
       <c r="AX31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
@@ -6091,13 +6158,13 @@
         <v>15</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-12-2013-14</t>
+          <t>2014-01-12</t>
         </is>
       </c>
     </row>
